--- a/Modelagem/Modelo Físico.xlsx
+++ b/Modelagem/Modelo Físico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39849548835\Documents\senai_spmedgroup_sprint1_bd_manha_AlexandreLima\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D7B9FA-BDE0-4716-9C4B-BD6273D9F2F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E71FCB-0507-4E1F-9022-27CC9AB1893F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{BB24E3DB-A554-4AAA-AA6F-33233C71D46F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>Clinica</t>
   </si>
@@ -460,13 +460,25 @@
   </si>
   <si>
     <t>Descricao</t>
+  </si>
+  <si>
+    <t>11 98875-1234</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Pequena inflamação</t>
+  </si>
+  <si>
+    <t>Doença Grave Detectada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,21 +495,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -640,43 +637,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -685,16 +662,63 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1033,15 +1057,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66159AD9-E125-4D29-AE22-6710C561EE7D}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -1054,14 +1078,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1084,7 +1108,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1099,213 +1123,213 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="31"/>
+      <c r="D5" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="40">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="41">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="40">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="41">
         <v>3</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="40">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="40">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="40">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="40">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="42">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="40">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="42">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="40">
         <v>9</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="42">
         <v>3</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="40">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="40">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="40">
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="40">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="40">
         <v>14</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="40">
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="40">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="40">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1314,13 +1338,13 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="K25" s="2"/>
@@ -1329,19 +1353,19 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="2"/>
@@ -1352,19 +1376,19 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
-        <v>1</v>
-      </c>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="38">
+        <v>1</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="32">
-        <v>1</v>
-      </c>
-      <c r="D27" s="32">
+      <c r="C27" s="38">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
         <v>2</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="38">
         <v>2</v>
       </c>
       <c r="F27" s="2"/>
@@ -1375,19 +1399,19 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="38">
         <v>2</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="32">
-        <v>1</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="C28" s="38">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
         <v>17</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="38">
         <v>3</v>
       </c>
       <c r="F28" s="2"/>
@@ -1398,19 +1422,19 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="32">
+      <c r="A29" s="38">
         <v>3</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="32">
-        <v>1</v>
-      </c>
-      <c r="D29" s="32">
+      <c r="C29" s="38">
+        <v>1</v>
+      </c>
+      <c r="D29" s="38">
         <v>16</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="38">
         <v>4</v>
       </c>
       <c r="F29" s="2"/>
@@ -1434,14 +1458,14 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1449,22 +1473,22 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="2"/>
@@ -1473,22 +1497,22 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
-        <v>1</v>
-      </c>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="37">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="39">
         <v>30602</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="37">
         <v>5</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="37">
         <v>2</v>
       </c>
       <c r="G33" s="2"/>
@@ -1497,22 +1521,22 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="27">
+      <c r="A34" s="37">
         <v>2</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="39">
         <v>37095</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="37">
         <v>6</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="37">
         <v>3</v>
       </c>
       <c r="G34" s="2"/>
@@ -1521,22 +1545,22 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="27">
+      <c r="A35" s="37">
         <v>3</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="39">
         <v>28773</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="37">
         <v>7</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="37">
         <v>4</v>
       </c>
       <c r="G35" s="2"/>
@@ -1545,22 +1569,22 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="37">
         <v>4</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="39">
         <v>31333</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="37">
         <v>8</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="37">
         <v>5</v>
       </c>
       <c r="G36" s="2"/>
@@ -1569,22 +1593,22 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="27">
+      <c r="A37" s="37">
         <v>5</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="39">
         <v>27633</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="37">
         <v>9</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="37">
         <v>6</v>
       </c>
       <c r="G37" s="2"/>
@@ -1593,22 +1617,22 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="27">
+      <c r="A38" s="37">
         <v>6</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="39">
         <v>26379</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="37">
         <v>10</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="37">
         <v>7</v>
       </c>
       <c r="G38" s="2"/>
@@ -1617,20 +1641,22 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="27">
+      <c r="A39" s="37">
         <v>7</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="39">
         <v>43164</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27">
+      <c r="D39" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="37">
         <v>11</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="37">
         <v>8</v>
       </c>
       <c r="G39" s="2"/>
@@ -1651,39 +1677,39 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K42" s="2"/>
@@ -1691,186 +1717,186 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>1</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="36">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="36">
         <v>532</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="36">
         <v>2</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="36">
         <v>240</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="36">
         <v>3</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="36">
         <v>1578</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="36">
         <v>4</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="36">
         <v>2927</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="36">
         <v>5</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="36">
         <v>120</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="36">
         <v>6</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="36">
         <v>66</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="36">
         <v>7</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="36">
         <v>945</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="36">
         <v>8</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="36">
         <v>232</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1884,307 +1910,307 @@
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
-        <v>1</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="35">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="18">
-        <v>1</v>
-      </c>
-      <c r="G54" s="18">
+      <c r="F54" s="35">
+        <v>1</v>
+      </c>
+      <c r="G54" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
+      <c r="A55" s="35">
         <v>2</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="35">
         <v>2</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
+      <c r="A56" s="35">
         <v>3</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="35">
         <v>2</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
+      <c r="A57" s="35">
         <v>4</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="35">
         <v>2</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
+      <c r="A58" s="35">
         <v>5</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="18">
         <v>94839859000</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="35">
         <v>3</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="18">
+      <c r="A59" s="35">
         <v>6</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="18">
         <v>73556944057</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="35">
         <v>3</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
+      <c r="A60" s="35">
         <v>7</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="18">
         <v>16839338002</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="35">
         <v>3</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
+      <c r="A61" s="35">
         <v>8</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="18">
         <v>14332654765</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="35">
         <v>3</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
+      <c r="A62" s="35">
         <v>9</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="18">
         <v>91305348010</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="35">
         <v>3</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="18">
+      <c r="A63" s="35">
         <v>10</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="18">
         <v>79799299004</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="35">
         <v>3</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
+      <c r="A64" s="35">
         <v>11</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="18">
         <v>13771913039</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="35">
         <v>3</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -2193,7 +2219,7 @@
       <c r="D67" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="24" t="s">
         <v>119</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2201,142 +2227,156 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
-      <c r="B68" s="33">
+      <c r="A68" s="33">
+        <v>1</v>
+      </c>
+      <c r="B68" s="34">
         <v>43850.625</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1">
+      <c r="C68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="33">
         <v>7</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="33">
         <v>3</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="33">
         <v>2</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B69" s="34">
         <v>43836.416666666664</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1">
+      <c r="C69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="33">
         <v>2</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="33">
         <v>2</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="33">
         <v>3</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="34">
         <v>43868.458333333336</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1">
+      <c r="C70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="33">
         <v>3</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="33">
         <v>2</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="33">
         <v>4</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="34">
         <v>43137.416666666664</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1">
+      <c r="C71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="33">
         <v>2</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="33">
         <v>2</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="33">
         <v>5</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="34">
         <v>43503.458854166667</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1">
+      <c r="C72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="33">
         <v>4</v>
       </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="E72" s="33">
+        <v>1</v>
+      </c>
+      <c r="F72" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="33">
         <v>6</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B73" s="34">
         <v>43898.625</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1">
+      <c r="C73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="33">
         <v>7</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="33">
         <v>3</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="33">
         <v>7</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B74" s="34">
         <v>43899.458854166667</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1">
+      <c r="C74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="33">
         <v>4</v>
       </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" s="33">
+        <v>1</v>
+      </c>
+      <c r="F74" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="D55:D57">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
